--- a/TadaNomina/Formatos/AltasLayout.xlsx
+++ b/TadaNomina/Formatos/AltasLayout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Documents\AzureDevOps\TadaNomina\TadaNomina\Formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beto Sanchez\Desktop\TadaEmpleados\TadaNomina\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24986B8E-C89F-4EAD-B962-59834D340746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28C4EE05-5A43-48B4-A445-0C12A1F31038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato de Altas" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="98">
   <si>
     <t>IdCentroCostos</t>
   </si>
@@ -314,6 +314,12 @@
   </si>
   <si>
     <t>CuentaInterbancariaViatico</t>
+  </si>
+  <si>
+    <t>TimbradoNomina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S o N </t>
   </si>
 </sst>
 </file>
@@ -430,7 +436,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -453,6 +459,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
@@ -498,9 +507,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:AR2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:AR2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:AS2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:AS2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="45">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="IdCentroCostos"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="IdDepartamento"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="IdPuesto"/>
@@ -545,6 +554,7 @@
     <tableColumn id="42" xr3:uid="{D96C5D13-07F2-435D-923F-A38766F20A93}" name="IdBancoViatico"/>
     <tableColumn id="43" xr3:uid="{C056C4C1-AC09-4419-9923-C9C757FA024C}" name="CuentaBancariaViatico" dataDxfId="1"/>
     <tableColumn id="44" xr3:uid="{60D3EFB4-245D-43E4-BA9D-26DCA28B44D4}" name="CuentaInterbancariaViatico" dataDxfId="0"/>
+    <tableColumn id="45" xr3:uid="{7AF3FA8A-679A-4EA4-9780-D97091BC26A9}" name="TimbradoNomina"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -813,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR1"/>
+  <dimension ref="A1:AS1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AS1" sqref="AS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -862,10 +872,12 @@
     <col min="39" max="39" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="16" style="1"/>
+    <col min="43" max="43" width="16" style="1"/>
+    <col min="44" max="44" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -997,6 +1009,9 @@
       </c>
       <c r="AR1" s="1" t="s">
         <v>95</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1009,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD0C11D-9BFB-47A1-934E-660C9DBC3DCF}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1922,6 +1937,23 @@
         <v>48</v>
       </c>
     </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="12">
+        <v>1</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F23" r:id="rId1" xr:uid="{5CEFBB2A-533A-44B8-BB02-56221299C650}"/>
